--- a/工作流/PrlDZ_BaoXiao_个人报销流程设计.xlsx
+++ b/工作流/PrlDZ_BaoXiao_个人报销流程设计.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\化炫\GitWeb\鹏瑞利内部网\工作流\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyWeb\prehoa\工作流\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14040" yWindow="0" windowWidth="18150" windowHeight="12390" activeTab="2"/>
+    <workbookView xWindow="15210" yWindow="0" windowWidth="18150" windowHeight="12390" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="功能概述" sheetId="1" r:id="rId1"/>
@@ -1645,23 +1645,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2329,7 +2316,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
@@ -2638,8 +2625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H96"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/工作流/PrlDZ_BaoXiao_个人报销流程设计.xlsx
+++ b/工作流/PrlDZ_BaoXiao_个人报销流程设计.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="15210" yWindow="0" windowWidth="18150" windowHeight="12390" activeTab="3"/>
+    <workbookView xWindow="2340" yWindow="0" windowWidth="3825" windowHeight="8445" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="功能概述" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="231">
   <si>
     <t>标题信息</t>
   </si>
@@ -750,9 +750,6 @@
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
-    <t>create table WF_Prl_BaoXiao_Dtl (</t>
-  </si>
-  <si>
     <t>Gid</t>
   </si>
   <si>
@@ -786,10 +783,6 @@
   </si>
   <si>
     <t>PAcgGid</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目大类</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
@@ -1189,6 +1182,70 @@
   </si>
   <si>
     <t>constraint PK_WF_Prl_BaoXiao_Attach primary key(EntGid, FlowGid, Attach_Gid)</t>
+  </si>
+  <si>
+    <t>Date</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>费用发生日期</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>FeeDate</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>drop table Prl_BaoXiao_Type;</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>create table Prl_BaoXiao_Type (</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目设置</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gid</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>constraint PK_Prl_BaoXiao_Type primary key(EntGid, Gid)</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>TypeGid</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>TypeName</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>科目</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>create table WF_Prl_BaoXiao_Dtl (</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>FeeEDate</t>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2623,10 +2680,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H96"/>
+  <dimension ref="A1:H109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3183,7 +3240,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A45" s="35" t="s">
-        <v>160</v>
+        <v>229</v>
       </c>
       <c r="B45" s="35"/>
       <c r="C45" s="35"/>
@@ -3236,9 +3293,9 @@
       </c>
       <c r="F48" s="38"/>
     </row>
-    <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B49" s="32" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C49" s="32" t="s">
         <v>95</v>
@@ -3247,11 +3304,11 @@
         <v>96</v>
       </c>
       <c r="E49" s="33" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F49" s="34"/>
     </row>
-    <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B50" s="31" t="s">
         <v>109</v>
       </c>
@@ -3259,24 +3316,24 @@
       <c r="E50" s="32"/>
       <c r="F50" s="34"/>
     </row>
-    <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B51" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="C51" s="32" t="s">
         <v>163</v>
       </c>
-      <c r="C51" s="32" t="s">
+      <c r="D51" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="E51" s="38" t="s">
         <v>164</v>
       </c>
-      <c r="D51" s="32" t="s">
-        <v>103</v>
-      </c>
-      <c r="E51" s="38" t="s">
-        <v>165</v>
-      </c>
       <c r="F51" s="34"/>
     </row>
-    <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B52" s="32" t="s">
-        <v>166</v>
+        <v>225</v>
       </c>
       <c r="C52" s="32" t="s">
         <v>95</v>
@@ -3285,16 +3342,16 @@
         <v>103</v>
       </c>
       <c r="E52" s="38" t="s">
-        <v>167</v>
+        <v>227</v>
       </c>
       <c r="F52" s="34"/>
     </row>
-    <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B53" s="32" t="s">
-        <v>168</v>
+        <v>226</v>
       </c>
       <c r="C53" s="32" t="s">
-        <v>169</v>
+        <v>145</v>
       </c>
       <c r="D53" s="32" t="s">
         <v>103</v>
@@ -3302,40 +3359,40 @@
       <c r="E53" s="38"/>
       <c r="F53" s="34"/>
     </row>
-    <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B54" s="32" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C54" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="D54" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="E54" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="F54" s="34"/>
+    </row>
+    <row r="55" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B55" s="32" t="s">
+        <v>166</v>
+      </c>
+      <c r="C55" s="32" t="s">
+        <v>167</v>
+      </c>
+      <c r="D55" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="E55" s="38"/>
+      <c r="F55" s="34"/>
+    </row>
+    <row r="56" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B56" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="C56" s="32" t="s">
         <v>145</v>
-      </c>
-      <c r="D54" s="32" t="s">
-        <v>103</v>
-      </c>
-      <c r="E54" s="38"/>
-      <c r="F54" s="34"/>
-    </row>
-    <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B55" s="32" t="s">
-        <v>171</v>
-      </c>
-      <c r="C55" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="D55" s="32" t="s">
-        <v>103</v>
-      </c>
-      <c r="E55" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="F55" s="34"/>
-    </row>
-    <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B56" s="32" t="s">
-        <v>173</v>
-      </c>
-      <c r="C56" s="32" t="s">
-        <v>169</v>
       </c>
       <c r="D56" s="32" t="s">
         <v>103</v>
@@ -3343,263 +3400,268 @@
       <c r="E56" s="38"/>
       <c r="F56" s="34"/>
     </row>
-    <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B57" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="C57" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="D57" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="E57" s="38" t="s">
+        <v>170</v>
+      </c>
+      <c r="F57" s="34"/>
+    </row>
+    <row r="58" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B58" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="C58" s="32" t="s">
+        <v>167</v>
+      </c>
+      <c r="D58" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="E58" s="38"/>
+      <c r="F58" s="34"/>
+    </row>
+    <row r="59" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B59" s="32" t="s">
+        <v>172</v>
+      </c>
+      <c r="C59" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="D59" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="E59" s="38"/>
+      <c r="F59" s="34"/>
+    </row>
+    <row r="60" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B60" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="C60" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="D60" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="E60" s="38" t="s">
         <v>174</v>
       </c>
-      <c r="C57" s="32" t="s">
-        <v>145</v>
-      </c>
-      <c r="D57" s="32" t="s">
-        <v>103</v>
-      </c>
-      <c r="E57" s="38"/>
-      <c r="F57" s="34"/>
-    </row>
-    <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B58" s="32" t="s">
+      <c r="F60" s="34"/>
+    </row>
+    <row r="61" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B61" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="C61" s="32" t="s">
+        <v>215</v>
+      </c>
+      <c r="D61" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="E61" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="F61" s="34"/>
+    </row>
+    <row r="62" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B62" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="C62" s="32" t="s">
+        <v>215</v>
+      </c>
+      <c r="D62" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="E62" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="F62" s="34"/>
+    </row>
+    <row r="63" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B63" s="32" t="s">
         <v>175</v>
       </c>
-      <c r="C58" s="32" t="s">
+      <c r="C63" s="32" t="s">
         <v>152</v>
       </c>
-      <c r="D58" s="32" t="s">
-        <v>103</v>
-      </c>
-      <c r="E58" s="38" t="s">
+      <c r="D63" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="E63" s="38" t="s">
         <v>176</v>
       </c>
-      <c r="F58" s="34"/>
-    </row>
-    <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B59" s="32" t="s">
+      <c r="F63" s="34"/>
+    </row>
+    <row r="64" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B64" s="32" t="s">
         <v>177</v>
       </c>
-      <c r="C59" s="32" t="s">
-        <v>152</v>
-      </c>
-      <c r="D59" s="32" t="s">
-        <v>103</v>
-      </c>
-      <c r="E59" s="38" t="s">
+      <c r="C64" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="D64" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="E64" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="F64" s="34"/>
+    </row>
+    <row r="65" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B65" s="32" t="s">
         <v>178</v>
       </c>
-      <c r="F59" s="34"/>
-    </row>
-    <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B60" s="32" t="s">
-        <v>179</v>
-      </c>
-      <c r="C60" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="D60" s="32" t="s">
-        <v>103</v>
-      </c>
-      <c r="E60" s="38" t="s">
-        <v>141</v>
-      </c>
-      <c r="F60" s="34"/>
-    </row>
-    <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B61" s="32" t="s">
-        <v>180</v>
-      </c>
-      <c r="D61" s="34"/>
-      <c r="E61" s="38"/>
-      <c r="F61" s="34"/>
-    </row>
-    <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B62" s="32" t="s">
-        <v>156</v>
-      </c>
-      <c r="D62" s="34"/>
-      <c r="E62" s="38"/>
-      <c r="F62" s="34"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A64" s="35" t="s">
-        <v>181</v>
-      </c>
-      <c r="B64" s="35"/>
-      <c r="C64" s="35"/>
-      <c r="D64" s="35"/>
-      <c r="E64" s="36" t="s">
-        <v>182</v>
-      </c>
-      <c r="F64" s="35"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A65" s="35" t="s">
-        <v>183</v>
-      </c>
-      <c r="B65" s="35"/>
-      <c r="C65" s="35"/>
-      <c r="D65" s="35"/>
-      <c r="E65" s="37"/>
-      <c r="F65" s="35"/>
+      <c r="D65" s="34"/>
+      <c r="E65" s="38"/>
+      <c r="F65" s="34"/>
     </row>
     <row r="66" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B66" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="D66" s="34"/>
+      <c r="E66" s="38"/>
+      <c r="F66" s="34"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A68" s="35" t="s">
+        <v>179</v>
+      </c>
+      <c r="B68" s="35"/>
+      <c r="C68" s="35"/>
+      <c r="D68" s="35"/>
+      <c r="E68" s="36" t="s">
+        <v>180</v>
+      </c>
+      <c r="F68" s="35"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A69" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="B69" s="35"/>
+      <c r="C69" s="35"/>
+      <c r="D69" s="35"/>
+      <c r="E69" s="37"/>
+      <c r="F69" s="35"/>
+    </row>
+    <row r="70" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B70" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="C66" s="32" t="s">
+      <c r="C70" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="D66" s="32" t="s">
+      <c r="D70" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="E66" s="38" t="s">
+      <c r="E70" s="38" t="s">
         <v>97</v>
       </c>
-      <c r="F66" s="34"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B67" s="32" t="s">
+      <c r="F70" s="34"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B71" s="32" t="s">
         <v>98</v>
-      </c>
-      <c r="C67" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="D67" s="32" t="s">
-        <v>96</v>
-      </c>
-      <c r="E67" s="38"/>
-      <c r="F67" s="38"/>
-    </row>
-    <row r="68" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B68" s="32" t="s">
-        <v>100</v>
-      </c>
-      <c r="C68" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="D68" s="32" t="s">
-        <v>96</v>
-      </c>
-      <c r="E68" s="38" t="s">
-        <v>101</v>
-      </c>
-      <c r="F68" s="34"/>
-    </row>
-    <row r="69" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B69" s="32" t="s">
-        <v>161</v>
-      </c>
-      <c r="C69" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="D69" s="32" t="s">
-        <v>96</v>
-      </c>
-      <c r="E69" s="38"/>
-      <c r="F69" s="34"/>
-    </row>
-    <row r="70" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B70" s="31" t="s">
-        <v>109</v>
-      </c>
-      <c r="D70" s="33"/>
-      <c r="E70" s="32"/>
-      <c r="F70" s="34"/>
-    </row>
-    <row r="71" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B71" s="32" t="s">
-        <v>184</v>
       </c>
       <c r="C71" s="32" t="s">
         <v>95</v>
       </c>
       <c r="D71" s="32" t="s">
-        <v>103</v>
-      </c>
-      <c r="E71" s="38" t="s">
-        <v>185</v>
-      </c>
-      <c r="F71" s="34"/>
+        <v>96</v>
+      </c>
+      <c r="E71" s="38"/>
+      <c r="F71" s="38"/>
     </row>
     <row r="72" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B72" s="32" t="s">
-        <v>186</v>
+        <v>100</v>
       </c>
       <c r="C72" s="32" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="D72" s="32" t="s">
-        <v>103</v>
-      </c>
-      <c r="E72" s="32"/>
+        <v>96</v>
+      </c>
+      <c r="E72" s="38" t="s">
+        <v>101</v>
+      </c>
       <c r="F72" s="34"/>
     </row>
     <row r="73" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B73" s="32" t="s">
-        <v>187</v>
+        <v>160</v>
       </c>
       <c r="C73" s="32" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="D73" s="32" t="s">
-        <v>103</v>
-      </c>
-      <c r="E73" s="32"/>
+        <v>96</v>
+      </c>
+      <c r="E73" s="38"/>
       <c r="F73" s="34"/>
     </row>
     <row r="74" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B74" s="32" t="s">
-        <v>188</v>
-      </c>
-      <c r="C74" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="D74" s="32" t="s">
-        <v>103</v>
-      </c>
+      <c r="B74" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="D74" s="33"/>
       <c r="E74" s="32"/>
       <c r="F74" s="34"/>
     </row>
     <row r="75" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B75" s="32" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="C75" s="32" t="s">
-        <v>190</v>
+        <v>95</v>
       </c>
       <c r="D75" s="32" t="s">
         <v>103</v>
       </c>
       <c r="E75" s="38" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="F75" s="34"/>
     </row>
-    <row r="76" spans="1:6" ht="144" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B76" s="32" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C76" s="32" t="s">
-        <v>164</v>
+        <v>115</v>
       </c>
       <c r="D76" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="E76" s="38" t="s">
-        <v>193</v>
-      </c>
-      <c r="F76" s="45" t="s">
-        <v>194</v>
-      </c>
+      <c r="E76" s="32"/>
+      <c r="F76" s="34"/>
     </row>
     <row r="77" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B77" s="31" t="s">
-        <v>109</v>
-      </c>
-      <c r="D77" s="33"/>
+      <c r="B77" s="32" t="s">
+        <v>185</v>
+      </c>
+      <c r="C77" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="D77" s="32" t="s">
+        <v>103</v>
+      </c>
       <c r="E77" s="32"/>
       <c r="F77" s="34"/>
     </row>
     <row r="78" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B78" s="32" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="C78" s="32" t="s">
         <v>115</v>
@@ -3607,44 +3669,44 @@
       <c r="D78" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="E78" s="38" t="s">
-        <v>196</v>
-      </c>
+      <c r="E78" s="32"/>
       <c r="F78" s="34"/>
     </row>
     <row r="79" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B79" s="32" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="C79" s="32" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="D79" s="32" t="s">
         <v>103</v>
       </c>
       <c r="E79" s="38" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="F79" s="34"/>
     </row>
-    <row r="80" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:6" ht="144" x14ac:dyDescent="0.15">
       <c r="B80" s="32" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="C80" s="32" t="s">
-        <v>106</v>
+        <v>163</v>
       </c>
       <c r="D80" s="32" t="s">
         <v>103</v>
       </c>
       <c r="E80" s="38" t="s">
-        <v>201</v>
-      </c>
-      <c r="F80" s="34"/>
+        <v>191</v>
+      </c>
+      <c r="F80" s="45" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="81" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B81" s="32" t="s">
-        <v>202</v>
+      <c r="B81" s="31" t="s">
+        <v>109</v>
       </c>
       <c r="D81" s="33"/>
       <c r="E81" s="32"/>
@@ -3652,148 +3714,148 @@
     </row>
     <row r="82" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B82" s="32" t="s">
+        <v>193</v>
+      </c>
+      <c r="C82" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="D82" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="E82" s="38" t="s">
+        <v>194</v>
+      </c>
+      <c r="F82" s="34"/>
+    </row>
+    <row r="83" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B83" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="C83" s="32" t="s">
+        <v>196</v>
+      </c>
+      <c r="D83" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="E83" s="38" t="s">
+        <v>197</v>
+      </c>
+      <c r="F83" s="34"/>
+    </row>
+    <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B84" s="32" t="s">
+        <v>198</v>
+      </c>
+      <c r="C84" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="D84" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="E84" s="38" t="s">
+        <v>199</v>
+      </c>
+      <c r="F84" s="34"/>
+    </row>
+    <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B85" s="32" t="s">
+        <v>200</v>
+      </c>
+      <c r="D85" s="33"/>
+      <c r="E85" s="32"/>
+      <c r="F85" s="34"/>
+    </row>
+    <row r="86" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B86" s="32" t="s">
         <v>156</v>
       </c>
-      <c r="D82" s="33"/>
-      <c r="E82" s="32"/>
-      <c r="F82" s="34"/>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A85" s="35" t="s">
+      <c r="D86" s="33"/>
+      <c r="E86" s="32"/>
+      <c r="F86" s="34"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A89" s="35" t="s">
+        <v>201</v>
+      </c>
+      <c r="B89" s="35"/>
+      <c r="C89" s="35"/>
+      <c r="D89" s="35"/>
+      <c r="E89" s="36" t="s">
+        <v>202</v>
+      </c>
+      <c r="F89" s="35"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A90" s="35" t="s">
         <v>203</v>
       </c>
-      <c r="B85" s="35"/>
-      <c r="C85" s="35"/>
-      <c r="D85" s="35"/>
-      <c r="E85" s="36" t="s">
-        <v>204</v>
-      </c>
-      <c r="F85" s="35"/>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A86" s="35" t="s">
-        <v>205</v>
-      </c>
-      <c r="B86" s="35"/>
-      <c r="C86" s="35"/>
-      <c r="D86" s="35"/>
-      <c r="E86" s="37"/>
-      <c r="F86" s="35"/>
-    </row>
-    <row r="87" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B87" s="32" t="s">
-        <v>94</v>
-      </c>
-      <c r="C87" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="D87" s="32" t="s">
-        <v>96</v>
-      </c>
-      <c r="E87" s="38" t="s">
-        <v>97</v>
-      </c>
-      <c r="F87" s="34"/>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B88" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="C88" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="D88" s="32" t="s">
-        <v>96</v>
-      </c>
-      <c r="E88" s="38"/>
-      <c r="F88" s="38"/>
-    </row>
-    <row r="89" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B89" s="32" t="s">
-        <v>100</v>
-      </c>
-      <c r="C89" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="D89" s="32" t="s">
-        <v>96</v>
-      </c>
-      <c r="E89" s="38" t="s">
-        <v>101</v>
-      </c>
-      <c r="F89" s="34"/>
-    </row>
-    <row r="90" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B90" s="32" t="s">
-        <v>206</v>
-      </c>
-      <c r="C90" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="D90" s="32" t="s">
-        <v>96</v>
-      </c>
-      <c r="E90" s="38" t="s">
-        <v>207</v>
-      </c>
-      <c r="F90" s="34"/>
+      <c r="B90" s="35"/>
+      <c r="C90" s="35"/>
+      <c r="D90" s="35"/>
+      <c r="E90" s="37"/>
+      <c r="F90" s="35"/>
     </row>
     <row r="91" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B91" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="D91" s="33"/>
-      <c r="E91" s="32"/>
+        <v>94</v>
+      </c>
+      <c r="C91" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="D91" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="E91" s="38" t="s">
+        <v>97</v>
+      </c>
       <c r="F91" s="34"/>
     </row>
-    <row r="92" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B92" s="32" t="s">
-        <v>208</v>
+        <v>98</v>
       </c>
       <c r="C92" s="32" t="s">
-        <v>209</v>
+        <v>95</v>
       </c>
       <c r="D92" s="32" t="s">
-        <v>103</v>
-      </c>
-      <c r="E92" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="F92" s="34"/>
+        <v>96</v>
+      </c>
+      <c r="E92" s="38"/>
+      <c r="F92" s="38"/>
     </row>
     <row r="93" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B93" s="32" t="s">
-        <v>211</v>
+        <v>100</v>
       </c>
       <c r="C93" s="32" t="s">
-        <v>212</v>
+        <v>95</v>
       </c>
       <c r="D93" s="32" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E93" s="38" t="s">
-        <v>213</v>
+        <v>101</v>
       </c>
       <c r="F93" s="34"/>
     </row>
     <row r="94" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B94" s="32" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="C94" s="32" t="s">
-        <v>164</v>
+        <v>95</v>
       </c>
       <c r="D94" s="32" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E94" s="38" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="F94" s="34"/>
     </row>
     <row r="95" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B95" s="32" t="s">
-        <v>216</v>
+        <v>109</v>
       </c>
       <c r="D95" s="33"/>
       <c r="E95" s="32"/>
@@ -3801,14 +3863,149 @@
     </row>
     <row r="96" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B96" s="32" t="s">
+        <v>206</v>
+      </c>
+      <c r="C96" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="D96" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="E96" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="F96" s="34"/>
+    </row>
+    <row r="97" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B97" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="C97" s="32" t="s">
+        <v>210</v>
+      </c>
+      <c r="D97" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="E97" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="F97" s="34"/>
+    </row>
+    <row r="98" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B98" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="C98" s="32" t="s">
+        <v>163</v>
+      </c>
+      <c r="D98" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="E98" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="F98" s="34"/>
+    </row>
+    <row r="99" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B99" s="32" t="s">
+        <v>214</v>
+      </c>
+      <c r="D99" s="33"/>
+      <c r="E99" s="32"/>
+      <c r="F99" s="34"/>
+    </row>
+    <row r="100" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B100" s="32" t="s">
         <v>156</v>
       </c>
-      <c r="D96" s="33"/>
-      <c r="E96" s="32"/>
-      <c r="F96" s="34"/>
+      <c r="D100" s="33"/>
+      <c r="E100" s="32"/>
+      <c r="F100" s="34"/>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A103" s="35" t="s">
+        <v>218</v>
+      </c>
+      <c r="B103" s="35"/>
+      <c r="C103" s="35"/>
+      <c r="D103" s="35"/>
+      <c r="E103" s="36" t="s">
+        <v>220</v>
+      </c>
+      <c r="F103" s="35"/>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A104" s="35" t="s">
+        <v>219</v>
+      </c>
+      <c r="B104" s="35"/>
+      <c r="C104" s="35"/>
+      <c r="D104" s="35"/>
+      <c r="E104" s="37"/>
+      <c r="F104" s="35"/>
+    </row>
+    <row r="105" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B105" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="C105" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="D105" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="E105" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="F105" s="34"/>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B106" s="32" t="s">
+        <v>221</v>
+      </c>
+      <c r="C106" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="D106" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="E106" s="38"/>
+      <c r="F106" s="38"/>
+    </row>
+    <row r="107" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B107" s="32" t="s">
+        <v>222</v>
+      </c>
+      <c r="C107" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="D107" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="E107" s="38" t="s">
+        <v>223</v>
+      </c>
+      <c r="F107" s="34"/>
+    </row>
+    <row r="108" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B108" s="32" t="s">
+        <v>224</v>
+      </c>
+      <c r="D108" s="33"/>
+      <c r="E108" s="32"/>
+      <c r="F108" s="34"/>
+    </row>
+    <row r="109" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B109" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="D109" s="33"/>
+      <c r="E109" s="32"/>
+      <c r="F109" s="34"/>
     </row>
   </sheetData>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/工作流/PrlDZ_BaoXiao_个人报销流程设计.xlsx
+++ b/工作流/PrlDZ_BaoXiao_个人报销流程设计.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="0" windowWidth="3825" windowHeight="8445" activeTab="3"/>
+    <workbookView xWindow="3516" yWindow="0" windowWidth="3828" windowHeight="8448" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="功能概述" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="235">
   <si>
     <t>标题信息</t>
   </si>
@@ -1245,6 +1245,22 @@
   </si>
   <si>
     <t>FeeEDate</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>drop table WF_Prl_Flow_Attach;</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>create table WF_Prl_Flow_Attach (</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>constraint PK_WF_Prl_Flow_Attach primary key(EntGid, FlowGid, Attach_Gid)</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>ModelGid</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
@@ -1674,7 +1690,7 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>647700</xdr:colOff>
           <xdr:row>110</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2051,23 +2067,23 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="16"/>
-    <col min="2" max="2" width="13.875" style="16" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" style="16" customWidth="1"/>
     <col min="3" max="3" width="53" style="10" customWidth="1"/>
-    <col min="4" max="4" width="24.875" style="16" customWidth="1"/>
+    <col min="4" max="4" width="24.88671875" style="16" customWidth="1"/>
     <col min="5" max="5" width="9" style="16"/>
-    <col min="6" max="6" width="12.25" style="17" customWidth="1"/>
+    <col min="6" max="6" width="12.21875" style="17" customWidth="1"/>
     <col min="7" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:6" ht="16.2" x14ac:dyDescent="0.25">
       <c r="B2" s="18" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="19" t="s">
         <v>1</v>
       </c>
@@ -2075,7 +2091,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="19" t="s">
         <v>3</v>
       </c>
@@ -2083,7 +2099,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="19" t="s">
         <v>5</v>
       </c>
@@ -2091,7 +2107,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="19" t="s">
         <v>7</v>
       </c>
@@ -2099,7 +2115,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="19" t="s">
         <v>9</v>
       </c>
@@ -2107,7 +2123,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:6" ht="16.2" x14ac:dyDescent="0.25">
       <c r="B10" s="18" t="s">
         <v>11</v>
       </c>
@@ -2116,7 +2132,7 @@
       <c r="E10" s="21"/>
       <c r="F10" s="22"/>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="23" t="s">
         <v>12</v>
       </c>
@@ -2133,7 +2149,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="24">
         <v>0.1</v>
       </c>
@@ -2148,7 +2164,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="24">
         <v>0.2</v>
       </c>
@@ -2157,7 +2173,7 @@
       <c r="E13" s="27"/>
       <c r="F13" s="28"/>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="24">
         <v>0.3</v>
       </c>
@@ -2166,7 +2182,7 @@
       <c r="E14" s="27"/>
       <c r="F14" s="28"/>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="24">
         <v>0.4</v>
       </c>
@@ -2175,13 +2191,13 @@
       <c r="E15" s="27"/>
       <c r="F15" s="28"/>
     </row>
-    <row r="17" spans="2:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:3" ht="16.2" x14ac:dyDescent="0.25">
       <c r="B17" s="18" t="s">
         <v>19</v>
       </c>
       <c r="C17" s="21"/>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="23" t="s">
         <v>20</v>
       </c>
@@ -2189,30 +2205,30 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="24">
         <v>1</v>
       </c>
       <c r="C19" s="27"/>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="24">
         <v>2</v>
       </c>
       <c r="C20" s="27"/>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="24">
         <v>3</v>
       </c>
       <c r="C21" s="27"/>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="18" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="23" t="s">
         <v>20</v>
       </c>
@@ -2220,7 +2236,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="24">
         <v>1</v>
       </c>
@@ -2228,7 +2244,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="24">
         <v>2</v>
       </c>
@@ -2236,7 +2252,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" s="24">
         <v>3</v>
       </c>
@@ -2244,7 +2260,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" s="24">
         <v>4</v>
       </c>
@@ -2252,7 +2268,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29" s="24">
         <v>5</v>
       </c>
@@ -2260,7 +2276,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B30" s="24">
         <v>6</v>
       </c>
@@ -2268,7 +2284,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B31" s="24">
         <v>7</v>
       </c>
@@ -2300,22 +2316,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="12.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="46.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="46.109375" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:4" ht="31.2" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
         <v>31</v>
       </c>
       <c r="C2" s="10"/>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
         <v>20</v>
       </c>
@@ -2326,35 +2342,35 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="13">
         <v>1</v>
       </c>
       <c r="C4" s="14"/>
       <c r="D4" s="15"/>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="13">
         <v>2</v>
       </c>
       <c r="C5" s="14"/>
       <c r="D5" s="15"/>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="13">
         <v>3</v>
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="15"/>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="13">
         <v>4</v>
       </c>
       <c r="C7" s="14"/>
       <c r="D7" s="15"/>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="13">
         <v>5</v>
       </c>
@@ -2377,16 +2393,16 @@
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="52.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.75" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.21875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="52.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" style="1" customWidth="1"/>
     <col min="4" max="4" width="17" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>34</v>
       </c>
@@ -2394,7 +2410,7 @@
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>35</v>
       </c>
@@ -2408,7 +2424,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>39</v>
       </c>
@@ -2422,7 +2438,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>42</v>
       </c>
@@ -2434,7 +2450,7 @@
       </c>
       <c r="D4" s="8"/>
     </row>
-    <row r="5" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>87</v>
       </c>
@@ -2448,7 +2464,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>44</v>
       </c>
@@ -2462,7 +2478,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>55</v>
       </c>
@@ -2476,7 +2492,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>56</v>
       </c>
@@ -2490,7 +2506,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>72</v>
       </c>
@@ -2504,7 +2520,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>57</v>
       </c>
@@ -2518,7 +2534,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>58</v>
       </c>
@@ -2532,7 +2548,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>59</v>
       </c>
@@ -2546,7 +2562,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>60</v>
       </c>
@@ -2558,7 +2574,7 @@
       </c>
       <c r="D13" s="7"/>
     </row>
-    <row r="14" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>86</v>
       </c>
@@ -2572,7 +2588,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>83</v>
       </c>
@@ -2586,7 +2602,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>50</v>
       </c>
@@ -2597,7 +2613,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>53</v>
       </c>
@@ -2611,7 +2627,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>62</v>
       </c>
@@ -2623,7 +2639,7 @@
       </c>
       <c r="D18" s="7"/>
     </row>
-    <row r="19" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>46</v>
       </c>
@@ -2635,7 +2651,7 @@
       </c>
       <c r="D19" s="7"/>
     </row>
-    <row r="21" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>47</v>
       </c>
@@ -2664,7 +2680,7 @@
                 <xdr:col>2</xdr:col>
                 <xdr:colOff>647700</xdr:colOff>
                 <xdr:row>110</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
+                <xdr:rowOff>144780</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -2680,23 +2696,23 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H109"/>
+  <dimension ref="A1:H123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C62" sqref="C62"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="A112" sqref="A112:D123"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="32" customWidth="1"/>
-    <col min="2" max="2" width="19.25" style="32" customWidth="1"/>
-    <col min="3" max="3" width="16.625" style="32" customWidth="1"/>
-    <col min="4" max="4" width="23.125" style="32" customWidth="1"/>
-    <col min="5" max="5" width="17.125" style="33" customWidth="1"/>
-    <col min="6" max="6" width="28.375" style="32" customWidth="1"/>
+    <col min="2" max="2" width="19.21875" style="32" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" style="32" customWidth="1"/>
+    <col min="4" max="4" width="23.109375" style="32" customWidth="1"/>
+    <col min="5" max="5" width="17.109375" style="33" customWidth="1"/>
+    <col min="6" max="6" width="28.33203125" style="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A1" s="31" t="s">
         <v>90</v>
       </c>
@@ -2704,7 +2720,7 @@
       <c r="E1" s="32"/>
       <c r="F1" s="34"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
         <v>91</v>
       </c>
@@ -2716,7 +2732,7 @@
       </c>
       <c r="F2" s="35"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="35" t="s">
         <v>93</v>
       </c>
@@ -2726,7 +2742,7 @@
       <c r="E3" s="37"/>
       <c r="F3" s="35"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" s="32" t="s">
         <v>94</v>
       </c>
@@ -2741,7 +2757,7 @@
       </c>
       <c r="F4" s="38"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" s="32" t="s">
         <v>98</v>
       </c>
@@ -2756,7 +2772,7 @@
       </c>
       <c r="F5" s="38"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="32" t="s">
         <v>100</v>
       </c>
@@ -2771,7 +2787,7 @@
       </c>
       <c r="F6" s="38"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" s="32" t="s">
         <v>102</v>
       </c>
@@ -2786,7 +2802,7 @@
       </c>
       <c r="F7" s="38"/>
     </row>
-    <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B8" s="32" t="s">
         <v>105</v>
       </c>
@@ -2799,7 +2815,7 @@
       <c r="E8" s="34"/>
       <c r="F8" s="38"/>
     </row>
-    <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B9" s="32" t="s">
         <v>108</v>
       </c>
@@ -2812,7 +2828,7 @@
       <c r="E9" s="34"/>
       <c r="F9" s="38"/>
     </row>
-    <row r="10" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B10" s="31" t="s">
         <v>109</v>
       </c>
@@ -2820,7 +2836,7 @@
       <c r="E10" s="34"/>
       <c r="F10" s="38"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="32" t="s">
         <v>110</v>
       </c>
@@ -2835,7 +2851,7 @@
       </c>
       <c r="F11" s="39"/>
     </row>
-    <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B12" s="31" t="s">
         <v>109</v>
       </c>
@@ -2843,7 +2859,7 @@
       <c r="E12" s="32"/>
       <c r="F12" s="34"/>
     </row>
-    <row r="13" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B13" s="32" t="s">
         <v>112</v>
       </c>
@@ -2858,7 +2874,7 @@
       </c>
       <c r="F13" s="34"/>
     </row>
-    <row r="14" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B14" s="32" t="s">
         <v>114</v>
       </c>
@@ -2871,7 +2887,7 @@
       <c r="E14" s="32"/>
       <c r="F14" s="34"/>
     </row>
-    <row r="15" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B15" s="32" t="s">
         <v>116</v>
       </c>
@@ -2884,7 +2900,7 @@
       <c r="E15" s="32"/>
       <c r="F15" s="34"/>
     </row>
-    <row r="16" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B16" s="32" t="s">
         <v>117</v>
       </c>
@@ -2899,7 +2915,7 @@
       </c>
       <c r="F16" s="34"/>
     </row>
-    <row r="17" spans="2:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B17" s="32" t="s">
         <v>119</v>
       </c>
@@ -2912,7 +2928,7 @@
       <c r="E17" s="32"/>
       <c r="F17" s="34"/>
     </row>
-    <row r="18" spans="2:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B18" s="32" t="s">
         <v>120</v>
       </c>
@@ -2925,7 +2941,7 @@
       <c r="E18" s="38"/>
       <c r="F18" s="34"/>
     </row>
-    <row r="19" spans="2:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B19" s="31" t="s">
         <v>109</v>
       </c>
@@ -2933,7 +2949,7 @@
       <c r="E19" s="32"/>
       <c r="F19" s="34"/>
     </row>
-    <row r="20" spans="2:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B20" s="32" t="s">
         <v>121</v>
       </c>
@@ -2948,7 +2964,7 @@
       </c>
       <c r="F20" s="34"/>
     </row>
-    <row r="21" spans="2:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B21" s="31" t="s">
         <v>109</v>
       </c>
@@ -2957,7 +2973,7 @@
       <c r="E21" s="32"/>
       <c r="F21" s="34"/>
     </row>
-    <row r="22" spans="2:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B22" s="32" t="s">
         <v>124</v>
       </c>
@@ -2972,7 +2988,7 @@
       </c>
       <c r="F22" s="34"/>
     </row>
-    <row r="23" spans="2:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B23" s="32" t="s">
         <v>126</v>
       </c>
@@ -2985,7 +3001,7 @@
       <c r="E23" s="32"/>
       <c r="F23" s="34"/>
     </row>
-    <row r="24" spans="2:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B24" s="32" t="s">
         <v>127</v>
       </c>
@@ -2998,7 +3014,7 @@
       <c r="E24" s="32"/>
       <c r="F24" s="34"/>
     </row>
-    <row r="25" spans="2:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B25" s="32" t="s">
         <v>128</v>
       </c>
@@ -3013,7 +3029,7 @@
       </c>
       <c r="F25" s="34"/>
     </row>
-    <row r="26" spans="2:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B26" s="31" t="s">
         <v>109</v>
       </c>
@@ -3022,7 +3038,7 @@
       <c r="E26" s="32"/>
       <c r="F26" s="34"/>
     </row>
-    <row r="27" spans="2:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B27" s="32" t="s">
         <v>131</v>
       </c>
@@ -3037,7 +3053,7 @@
       </c>
       <c r="F27" s="34"/>
     </row>
-    <row r="28" spans="2:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B28" s="32" t="s">
         <v>133</v>
       </c>
@@ -3050,7 +3066,7 @@
       <c r="E28" s="38"/>
       <c r="F28" s="34"/>
     </row>
-    <row r="29" spans="2:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B29" s="32" t="s">
         <v>135</v>
       </c>
@@ -3065,7 +3081,7 @@
       </c>
       <c r="F29" s="34"/>
     </row>
-    <row r="30" spans="2:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B30" s="32" t="s">
         <v>137</v>
       </c>
@@ -3078,7 +3094,7 @@
       <c r="E30" s="38"/>
       <c r="F30" s="34"/>
     </row>
-    <row r="31" spans="2:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B31" s="32" t="s">
         <v>138</v>
       </c>
@@ -3091,7 +3107,7 @@
       <c r="E31" s="38"/>
       <c r="F31" s="34"/>
     </row>
-    <row r="32" spans="2:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B32" s="32" t="s">
         <v>139</v>
       </c>
@@ -3108,7 +3124,7 @@
       <c r="G32" s="40"/>
       <c r="H32" s="40"/>
     </row>
-    <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B33" s="31" t="s">
         <v>109</v>
       </c>
@@ -3117,7 +3133,7 @@
       <c r="E33" s="32"/>
       <c r="F33" s="34"/>
     </row>
-    <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B34" s="32" t="s">
         <v>142</v>
       </c>
@@ -3132,7 +3148,7 @@
       </c>
       <c r="F34" s="34"/>
     </row>
-    <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B35" s="32" t="s">
         <v>144</v>
       </c>
@@ -3147,7 +3163,7 @@
       </c>
       <c r="F35" s="34"/>
     </row>
-    <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B36" s="32" t="s">
         <v>147</v>
       </c>
@@ -3162,7 +3178,7 @@
       </c>
       <c r="F36" s="34"/>
     </row>
-    <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B37" s="31" t="s">
         <v>149</v>
       </c>
@@ -3177,7 +3193,7 @@
       </c>
       <c r="F37" s="34"/>
     </row>
-    <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B38" s="32" t="s">
         <v>151</v>
       </c>
@@ -3192,7 +3208,7 @@
       </c>
       <c r="F38" s="34"/>
     </row>
-    <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B39" s="32" t="s">
         <v>154</v>
       </c>
@@ -3200,7 +3216,7 @@
       <c r="E39" s="32"/>
       <c r="F39" s="34"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="41"/>
       <c r="B40" s="42" t="s">
         <v>155</v>
@@ -3210,7 +3226,7 @@
       <c r="E40" s="44"/>
       <c r="F40" s="41"/>
     </row>
-    <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B41" s="32" t="s">
         <v>156</v>
       </c>
@@ -3218,7 +3234,7 @@
       <c r="E41" s="32"/>
       <c r="F41" s="34"/>
     </row>
-    <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A42" s="32" t="s">
         <v>157</v>
       </c>
@@ -3226,7 +3242,7 @@
       <c r="E42" s="32"/>
       <c r="F42" s="34"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="35" t="s">
         <v>158</v>
       </c>
@@ -3238,7 +3254,7 @@
       </c>
       <c r="F44" s="35"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="35" t="s">
         <v>229</v>
       </c>
@@ -3248,7 +3264,7 @@
       <c r="E45" s="37"/>
       <c r="F45" s="35"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B46" s="32" t="s">
         <v>94</v>
       </c>
@@ -3263,7 +3279,7 @@
       </c>
       <c r="F46" s="38"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B47" s="32" t="s">
         <v>98</v>
       </c>
@@ -3278,7 +3294,7 @@
       </c>
       <c r="F47" s="38"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B48" s="32" t="s">
         <v>100</v>
       </c>
@@ -3293,7 +3309,7 @@
       </c>
       <c r="F48" s="38"/>
     </row>
-    <row r="49" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B49" s="32" t="s">
         <v>160</v>
       </c>
@@ -3308,7 +3324,7 @@
       </c>
       <c r="F49" s="34"/>
     </row>
-    <row r="50" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B50" s="31" t="s">
         <v>109</v>
       </c>
@@ -3316,7 +3332,7 @@
       <c r="E50" s="32"/>
       <c r="F50" s="34"/>
     </row>
-    <row r="51" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B51" s="32" t="s">
         <v>162</v>
       </c>
@@ -3331,7 +3347,7 @@
       </c>
       <c r="F51" s="34"/>
     </row>
-    <row r="52" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B52" s="32" t="s">
         <v>225</v>
       </c>
@@ -3346,7 +3362,7 @@
       </c>
       <c r="F52" s="34"/>
     </row>
-    <row r="53" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B53" s="32" t="s">
         <v>226</v>
       </c>
@@ -3359,7 +3375,7 @@
       <c r="E53" s="38"/>
       <c r="F53" s="34"/>
     </row>
-    <row r="54" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B54" s="32" t="s">
         <v>165</v>
       </c>
@@ -3374,7 +3390,7 @@
       </c>
       <c r="F54" s="34"/>
     </row>
-    <row r="55" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B55" s="32" t="s">
         <v>166</v>
       </c>
@@ -3387,7 +3403,7 @@
       <c r="E55" s="38"/>
       <c r="F55" s="34"/>
     </row>
-    <row r="56" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B56" s="32" t="s">
         <v>168</v>
       </c>
@@ -3400,7 +3416,7 @@
       <c r="E56" s="38"/>
       <c r="F56" s="34"/>
     </row>
-    <row r="57" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B57" s="32" t="s">
         <v>169</v>
       </c>
@@ -3415,7 +3431,7 @@
       </c>
       <c r="F57" s="34"/>
     </row>
-    <row r="58" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B58" s="32" t="s">
         <v>171</v>
       </c>
@@ -3428,7 +3444,7 @@
       <c r="E58" s="38"/>
       <c r="F58" s="34"/>
     </row>
-    <row r="59" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B59" s="32" t="s">
         <v>172</v>
       </c>
@@ -3441,7 +3457,7 @@
       <c r="E59" s="38"/>
       <c r="F59" s="34"/>
     </row>
-    <row r="60" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B60" s="32" t="s">
         <v>173</v>
       </c>
@@ -3456,7 +3472,7 @@
       </c>
       <c r="F60" s="34"/>
     </row>
-    <row r="61" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B61" s="32" t="s">
         <v>217</v>
       </c>
@@ -3471,7 +3487,7 @@
       </c>
       <c r="F61" s="34"/>
     </row>
-    <row r="62" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B62" s="32" t="s">
         <v>230</v>
       </c>
@@ -3486,7 +3502,7 @@
       </c>
       <c r="F62" s="34"/>
     </row>
-    <row r="63" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B63" s="32" t="s">
         <v>175</v>
       </c>
@@ -3501,7 +3517,7 @@
       </c>
       <c r="F63" s="34"/>
     </row>
-    <row r="64" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B64" s="32" t="s">
         <v>177</v>
       </c>
@@ -3516,7 +3532,7 @@
       </c>
       <c r="F64" s="34"/>
     </row>
-    <row r="65" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B65" s="32" t="s">
         <v>178</v>
       </c>
@@ -3524,7 +3540,7 @@
       <c r="E65" s="38"/>
       <c r="F65" s="34"/>
     </row>
-    <row r="66" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B66" s="32" t="s">
         <v>156</v>
       </c>
@@ -3532,7 +3548,7 @@
       <c r="E66" s="38"/>
       <c r="F66" s="34"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="35" t="s">
         <v>179</v>
       </c>
@@ -3544,7 +3560,7 @@
       </c>
       <c r="F68" s="35"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="35" t="s">
         <v>181</v>
       </c>
@@ -3554,7 +3570,7 @@
       <c r="E69" s="37"/>
       <c r="F69" s="35"/>
     </row>
-    <row r="70" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B70" s="32" t="s">
         <v>94</v>
       </c>
@@ -3569,7 +3585,7 @@
       </c>
       <c r="F70" s="34"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B71" s="32" t="s">
         <v>98</v>
       </c>
@@ -3582,7 +3598,7 @@
       <c r="E71" s="38"/>
       <c r="F71" s="38"/>
     </row>
-    <row r="72" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B72" s="32" t="s">
         <v>100</v>
       </c>
@@ -3597,7 +3613,7 @@
       </c>
       <c r="F72" s="34"/>
     </row>
-    <row r="73" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B73" s="32" t="s">
         <v>160</v>
       </c>
@@ -3610,7 +3626,7 @@
       <c r="E73" s="38"/>
       <c r="F73" s="34"/>
     </row>
-    <row r="74" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B74" s="31" t="s">
         <v>109</v>
       </c>
@@ -3618,7 +3634,7 @@
       <c r="E74" s="32"/>
       <c r="F74" s="34"/>
     </row>
-    <row r="75" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B75" s="32" t="s">
         <v>182</v>
       </c>
@@ -3633,7 +3649,7 @@
       </c>
       <c r="F75" s="34"/>
     </row>
-    <row r="76" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B76" s="32" t="s">
         <v>184</v>
       </c>
@@ -3646,7 +3662,7 @@
       <c r="E76" s="32"/>
       <c r="F76" s="34"/>
     </row>
-    <row r="77" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B77" s="32" t="s">
         <v>185</v>
       </c>
@@ -3659,7 +3675,7 @@
       <c r="E77" s="32"/>
       <c r="F77" s="34"/>
     </row>
-    <row r="78" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B78" s="32" t="s">
         <v>186</v>
       </c>
@@ -3672,7 +3688,7 @@
       <c r="E78" s="32"/>
       <c r="F78" s="34"/>
     </row>
-    <row r="79" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B79" s="32" t="s">
         <v>187</v>
       </c>
@@ -3687,7 +3703,7 @@
       </c>
       <c r="F79" s="34"/>
     </row>
-    <row r="80" spans="1:6" ht="144" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:6" ht="144" x14ac:dyDescent="0.25">
       <c r="B80" s="32" t="s">
         <v>190</v>
       </c>
@@ -3704,7 +3720,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B81" s="31" t="s">
         <v>109</v>
       </c>
@@ -3712,7 +3728,7 @@
       <c r="E81" s="32"/>
       <c r="F81" s="34"/>
     </row>
-    <row r="82" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B82" s="32" t="s">
         <v>193</v>
       </c>
@@ -3727,7 +3743,7 @@
       </c>
       <c r="F82" s="34"/>
     </row>
-    <row r="83" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B83" s="32" t="s">
         <v>195</v>
       </c>
@@ -3742,7 +3758,7 @@
       </c>
       <c r="F83" s="34"/>
     </row>
-    <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B84" s="32" t="s">
         <v>198</v>
       </c>
@@ -3757,7 +3773,7 @@
       </c>
       <c r="F84" s="34"/>
     </row>
-    <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B85" s="32" t="s">
         <v>200</v>
       </c>
@@ -3765,7 +3781,7 @@
       <c r="E85" s="32"/>
       <c r="F85" s="34"/>
     </row>
-    <row r="86" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B86" s="32" t="s">
         <v>156</v>
       </c>
@@ -3773,7 +3789,7 @@
       <c r="E86" s="32"/>
       <c r="F86" s="34"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="35" t="s">
         <v>201</v>
       </c>
@@ -3785,7 +3801,7 @@
       </c>
       <c r="F89" s="35"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="35" t="s">
         <v>203</v>
       </c>
@@ -3795,7 +3811,7 @@
       <c r="E90" s="37"/>
       <c r="F90" s="35"/>
     </row>
-    <row r="91" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B91" s="32" t="s">
         <v>94</v>
       </c>
@@ -3810,7 +3826,7 @@
       </c>
       <c r="F91" s="34"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B92" s="32" t="s">
         <v>98</v>
       </c>
@@ -3823,7 +3839,7 @@
       <c r="E92" s="38"/>
       <c r="F92" s="38"/>
     </row>
-    <row r="93" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B93" s="32" t="s">
         <v>100</v>
       </c>
@@ -3838,7 +3854,7 @@
       </c>
       <c r="F93" s="34"/>
     </row>
-    <row r="94" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B94" s="32" t="s">
         <v>204</v>
       </c>
@@ -3853,7 +3869,7 @@
       </c>
       <c r="F94" s="34"/>
     </row>
-    <row r="95" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B95" s="32" t="s">
         <v>109</v>
       </c>
@@ -3861,7 +3877,7 @@
       <c r="E95" s="32"/>
       <c r="F95" s="34"/>
     </row>
-    <row r="96" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B96" s="32" t="s">
         <v>206</v>
       </c>
@@ -3876,7 +3892,7 @@
       </c>
       <c r="F96" s="34"/>
     </row>
-    <row r="97" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B97" s="32" t="s">
         <v>209</v>
       </c>
@@ -3891,7 +3907,7 @@
       </c>
       <c r="F97" s="34"/>
     </row>
-    <row r="98" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B98" s="32" t="s">
         <v>212</v>
       </c>
@@ -3906,7 +3922,7 @@
       </c>
       <c r="F98" s="34"/>
     </row>
-    <row r="99" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B99" s="32" t="s">
         <v>214</v>
       </c>
@@ -3914,7 +3930,7 @@
       <c r="E99" s="32"/>
       <c r="F99" s="34"/>
     </row>
-    <row r="100" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B100" s="32" t="s">
         <v>156</v>
       </c>
@@ -3922,7 +3938,7 @@
       <c r="E100" s="32"/>
       <c r="F100" s="34"/>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="35" t="s">
         <v>218</v>
       </c>
@@ -3934,7 +3950,7 @@
       </c>
       <c r="F103" s="35"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="35" t="s">
         <v>219</v>
       </c>
@@ -3944,7 +3960,7 @@
       <c r="E104" s="37"/>
       <c r="F104" s="35"/>
     </row>
-    <row r="105" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B105" s="32" t="s">
         <v>94</v>
       </c>
@@ -3959,7 +3975,7 @@
       </c>
       <c r="F105" s="34"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B106" s="32" t="s">
         <v>221</v>
       </c>
@@ -3972,7 +3988,7 @@
       <c r="E106" s="38"/>
       <c r="F106" s="38"/>
     </row>
-    <row r="107" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B107" s="32" t="s">
         <v>222</v>
       </c>
@@ -3987,7 +4003,7 @@
       </c>
       <c r="F107" s="34"/>
     </row>
-    <row r="108" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B108" s="32" t="s">
         <v>224</v>
       </c>
@@ -3995,7 +4011,7 @@
       <c r="E108" s="32"/>
       <c r="F108" s="34"/>
     </row>
-    <row r="109" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B109" s="32" t="s">
         <v>156</v>
       </c>
@@ -4003,9 +4019,158 @@
       <c r="E109" s="32"/>
       <c r="F109" s="34"/>
     </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="B112" s="35"/>
+      <c r="C112" s="35"/>
+      <c r="D112" s="35"/>
+      <c r="E112" s="36" t="s">
+        <v>202</v>
+      </c>
+      <c r="F112" s="35"/>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="B113" s="35"/>
+      <c r="C113" s="35"/>
+      <c r="D113" s="35"/>
+      <c r="E113" s="37"/>
+      <c r="F113" s="35"/>
+    </row>
+    <row r="114" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B114" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="C114" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="D114" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="E114" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="F114" s="34"/>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B115" s="32" t="s">
+        <v>234</v>
+      </c>
+      <c r="C115" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="D115" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="E115" s="38"/>
+      <c r="F115" s="38"/>
+    </row>
+    <row r="116" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B116" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="C116" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="D116" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="E116" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="F116" s="34"/>
+    </row>
+    <row r="117" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B117" s="32" t="s">
+        <v>204</v>
+      </c>
+      <c r="C117" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="D117" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="E117" s="38" t="s">
+        <v>205</v>
+      </c>
+      <c r="F117" s="34"/>
+    </row>
+    <row r="118" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B118" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="D118" s="33"/>
+      <c r="E118" s="32"/>
+      <c r="F118" s="34"/>
+    </row>
+    <row r="119" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B119" s="32" t="s">
+        <v>206</v>
+      </c>
+      <c r="C119" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="D119" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="E119" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="F119" s="34"/>
+    </row>
+    <row r="120" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B120" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="C120" s="32" t="s">
+        <v>210</v>
+      </c>
+      <c r="D120" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="E120" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="F120" s="34"/>
+    </row>
+    <row r="121" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B121" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="C121" s="32" t="s">
+        <v>163</v>
+      </c>
+      <c r="D121" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="E121" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="F121" s="34"/>
+    </row>
+    <row r="122" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B122" s="32" t="s">
+        <v>233</v>
+      </c>
+      <c r="D122" s="33"/>
+      <c r="E122" s="32"/>
+      <c r="F122" s="34"/>
+    </row>
+    <row r="123" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B123" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="D123" s="33"/>
+      <c r="E123" s="32"/>
+      <c r="F123" s="34"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/工作流/PrlDZ_BaoXiao_个人报销流程设计.xlsx
+++ b/工作流/PrlDZ_BaoXiao_个人报销流程设计.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3516" yWindow="0" windowWidth="3828" windowHeight="8448" activeTab="3"/>
+    <workbookView xWindow="4692" yWindow="0" windowWidth="3828" windowHeight="8448" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="功能概述" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="236">
   <si>
     <t>标题信息</t>
   </si>
@@ -1261,6 +1261,10 @@
   </si>
   <si>
     <t>ModelGid</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attach_Type</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
@@ -2696,10 +2700,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H123"/>
+  <dimension ref="A1:H124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="A112" sqref="A112:D123"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="C103" sqref="C103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3879,105 +3883,103 @@
     </row>
     <row r="96" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B96" s="32" t="s">
-        <v>206</v>
+        <v>235</v>
       </c>
       <c r="C96" s="32" t="s">
-        <v>207</v>
+        <v>163</v>
       </c>
       <c r="D96" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="E96" s="38" t="s">
-        <v>208</v>
-      </c>
+      <c r="E96" s="32"/>
       <c r="F96" s="34"/>
     </row>
     <row r="97" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B97" s="32" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C97" s="32" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D97" s="32" t="s">
         <v>103</v>
       </c>
       <c r="E97" s="38" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F97" s="34"/>
     </row>
     <row r="98" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B98" s="32" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C98" s="32" t="s">
-        <v>163</v>
+        <v>210</v>
       </c>
       <c r="D98" s="32" t="s">
         <v>103</v>
       </c>
       <c r="E98" s="38" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F98" s="34"/>
     </row>
     <row r="99" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B99" s="32" t="s">
-        <v>214</v>
-      </c>
-      <c r="D99" s="33"/>
-      <c r="E99" s="32"/>
+        <v>212</v>
+      </c>
+      <c r="C99" s="32" t="s">
+        <v>163</v>
+      </c>
+      <c r="D99" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="E99" s="38" t="s">
+        <v>213</v>
+      </c>
       <c r="F99" s="34"/>
     </row>
     <row r="100" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B100" s="32" t="s">
-        <v>156</v>
+        <v>214</v>
       </c>
       <c r="D100" s="33"/>
       <c r="E100" s="32"/>
       <c r="F100" s="34"/>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" s="35" t="s">
-        <v>218</v>
-      </c>
-      <c r="B103" s="35"/>
-      <c r="C103" s="35"/>
-      <c r="D103" s="35"/>
-      <c r="E103" s="36" t="s">
-        <v>220</v>
-      </c>
-      <c r="F103" s="35"/>
+    <row r="101" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B101" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="D101" s="33"/>
+      <c r="E101" s="32"/>
+      <c r="F101" s="34"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="35" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B104" s="35"/>
       <c r="C104" s="35"/>
       <c r="D104" s="35"/>
-      <c r="E104" s="37"/>
+      <c r="E104" s="36" t="s">
+        <v>220</v>
+      </c>
       <c r="F104" s="35"/>
     </row>
-    <row r="105" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B105" s="32" t="s">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" s="35" t="s">
+        <v>219</v>
+      </c>
+      <c r="B105" s="35"/>
+      <c r="C105" s="35"/>
+      <c r="D105" s="35"/>
+      <c r="E105" s="37"/>
+      <c r="F105" s="35"/>
+    </row>
+    <row r="106" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B106" s="32" t="s">
         <v>94</v>
-      </c>
-      <c r="C105" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="D105" s="32" t="s">
-        <v>96</v>
-      </c>
-      <c r="E105" s="38" t="s">
-        <v>97</v>
-      </c>
-      <c r="F105" s="34"/>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B106" s="32" t="s">
-        <v>221</v>
       </c>
       <c r="C106" s="32" t="s">
         <v>95</v>
@@ -3985,80 +3987,80 @@
       <c r="D106" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="E106" s="38"/>
-      <c r="F106" s="38"/>
-    </row>
-    <row r="107" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="E106" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="F106" s="34"/>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B107" s="32" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C107" s="32" t="s">
-        <v>207</v>
+        <v>95</v>
       </c>
       <c r="D107" s="32" t="s">
-        <v>103</v>
-      </c>
-      <c r="E107" s="38" t="s">
-        <v>223</v>
-      </c>
-      <c r="F107" s="34"/>
+        <v>96</v>
+      </c>
+      <c r="E107" s="38"/>
+      <c r="F107" s="38"/>
     </row>
     <row r="108" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B108" s="32" t="s">
-        <v>224</v>
-      </c>
-      <c r="D108" s="33"/>
-      <c r="E108" s="32"/>
+        <v>222</v>
+      </c>
+      <c r="C108" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="D108" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="E108" s="38" t="s">
+        <v>223</v>
+      </c>
       <c r="F108" s="34"/>
     </row>
     <row r="109" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B109" s="32" t="s">
-        <v>156</v>
+        <v>224</v>
       </c>
       <c r="D109" s="33"/>
       <c r="E109" s="32"/>
       <c r="F109" s="34"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" s="35" t="s">
-        <v>231</v>
-      </c>
-      <c r="B112" s="35"/>
-      <c r="C112" s="35"/>
-      <c r="D112" s="35"/>
-      <c r="E112" s="36" t="s">
-        <v>202</v>
-      </c>
-      <c r="F112" s="35"/>
+    <row r="110" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B110" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="D110" s="33"/>
+      <c r="E110" s="32"/>
+      <c r="F110" s="34"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="35" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B113" s="35"/>
       <c r="C113" s="35"/>
       <c r="D113" s="35"/>
-      <c r="E113" s="37"/>
+      <c r="E113" s="36" t="s">
+        <v>202</v>
+      </c>
       <c r="F113" s="35"/>
     </row>
-    <row r="114" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B114" s="32" t="s">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="B114" s="35"/>
+      <c r="C114" s="35"/>
+      <c r="D114" s="35"/>
+      <c r="E114" s="37"/>
+      <c r="F114" s="35"/>
+    </row>
+    <row r="115" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B115" s="32" t="s">
         <v>94</v>
-      </c>
-      <c r="C114" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="D114" s="32" t="s">
-        <v>96</v>
-      </c>
-      <c r="E114" s="38" t="s">
-        <v>97</v>
-      </c>
-      <c r="F114" s="34"/>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B115" s="32" t="s">
-        <v>234</v>
       </c>
       <c r="C115" s="32" t="s">
         <v>95</v>
@@ -4066,12 +4068,14 @@
       <c r="D115" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="E115" s="38"/>
-      <c r="F115" s="38"/>
-    </row>
-    <row r="116" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="E115" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="F115" s="34"/>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B116" s="32" t="s">
-        <v>100</v>
+        <v>234</v>
       </c>
       <c r="C116" s="32" t="s">
         <v>95</v>
@@ -4079,14 +4083,12 @@
       <c r="D116" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="E116" s="38" t="s">
-        <v>101</v>
-      </c>
-      <c r="F116" s="34"/>
+      <c r="E116" s="38"/>
+      <c r="F116" s="38"/>
     </row>
     <row r="117" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B117" s="32" t="s">
-        <v>204</v>
+        <v>100</v>
       </c>
       <c r="C117" s="32" t="s">
         <v>95</v>
@@ -4095,78 +4097,93 @@
         <v>96</v>
       </c>
       <c r="E117" s="38" t="s">
-        <v>205</v>
+        <v>101</v>
       </c>
       <c r="F117" s="34"/>
     </row>
     <row r="118" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B118" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="D118" s="33"/>
-      <c r="E118" s="32"/>
+        <v>204</v>
+      </c>
+      <c r="C118" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="D118" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="E118" s="38" t="s">
+        <v>205</v>
+      </c>
       <c r="F118" s="34"/>
     </row>
     <row r="119" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B119" s="32" t="s">
-        <v>206</v>
-      </c>
-      <c r="C119" s="32" t="s">
-        <v>207</v>
-      </c>
-      <c r="D119" s="32" t="s">
-        <v>103</v>
-      </c>
-      <c r="E119" s="38" t="s">
-        <v>208</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="D119" s="33"/>
+      <c r="E119" s="32"/>
       <c r="F119" s="34"/>
     </row>
     <row r="120" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B120" s="32" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C120" s="32" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D120" s="32" t="s">
         <v>103</v>
       </c>
       <c r="E120" s="38" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F120" s="34"/>
     </row>
     <row r="121" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B121" s="32" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C121" s="32" t="s">
-        <v>163</v>
+        <v>210</v>
       </c>
       <c r="D121" s="32" t="s">
         <v>103</v>
       </c>
       <c r="E121" s="38" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F121" s="34"/>
     </row>
     <row r="122" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B122" s="32" t="s">
-        <v>233</v>
-      </c>
-      <c r="D122" s="33"/>
-      <c r="E122" s="32"/>
+        <v>212</v>
+      </c>
+      <c r="C122" s="32" t="s">
+        <v>163</v>
+      </c>
+      <c r="D122" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="E122" s="38" t="s">
+        <v>213</v>
+      </c>
       <c r="F122" s="34"/>
     </row>
     <row r="123" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B123" s="32" t="s">
-        <v>156</v>
+        <v>233</v>
       </c>
       <c r="D123" s="33"/>
       <c r="E123" s="32"/>
       <c r="F123" s="34"/>
+    </row>
+    <row r="124" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B124" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="D124" s="33"/>
+      <c r="E124" s="32"/>
+      <c r="F124" s="34"/>
     </row>
   </sheetData>
   <phoneticPr fontId="17" type="noConversion"/>
